--- a/Eddington/SR EDDINGTON-260/BLE_GAP_DISC_0008.xlsx
+++ b/Eddington/SR EDDINGTON-260/BLE_GAP_DISC_0008.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Step Name</t>
   </si>
@@ -184,22 +184,6 @@
       </rPr>
       <t xml:space="preserve">
 &gt;&gt;&gt; dut.ble_get_scan_parameters()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Repeat step 2-5 to check discovery procedure with variety scan interval parameter
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scan_interval = [8, 16, 80, 1024, 16384]</t>
     </r>
   </si>
   <si>
@@ -347,22 +331,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Start scanning BT devices in the area with Parsed advertising data response and time out is 2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;&gt;&gt; first_parsed_scan_list = dut.ble_scan(2, BleInterface.SCAN_RESULT_FORMAT_DEFAULT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Start scanning BT devices in the area with Raw advertising data response and time out is 6
 </t>
     </r>
@@ -378,24 +346,55 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Start scanning BT devices in the area with Parsed advertising data response and time out is 2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;&gt;&gt; second_parsed_scan_list = dut.ble_scan(2, BleInterface.SCAN_RESULT_FORMAT_DEFAULT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check that the number of scan results will be smaller when increasing the scan_interval
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>Step 10</t>
+  </si>
+  <si>
+    <t>Step 11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start scanning BT devices in the area with Parsed advertising data response and time out is 6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&gt;&gt; first_parsed_scan_list = dut.ble_scan(6, BleInterface.SCAN_RESULT_FORMAT_DEFAULT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start scanning BT devices in the area with Parsed advertising data response and time out is 6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&gt;&gt; second_parsed_scan_list = dut.ble_scan(6, BleInterface.SCAN_RESULT_FORMAT_DEFAULT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check that the number of scan results will decrease when increasing the scan_interval
 </t>
     </r>
     <r>
@@ -408,6 +407,22 @@
       </rPr>
       <t xml:space="preserve">&gt;&gt;&gt;assert len(first_raw_scan_list)  &lt; len(second_raw_scan_list) 
 &gt;&gt;&gt;assert len(first_parsed_scan_list)  &lt; len(second_parsed_scan_list) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Repeat step 2-10 to check discovery procedure with variety scan interval parameter and how it affects to scan result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scan_interval = [1500, 500, 200, 50, 20, 10]</t>
     </r>
   </si>
 </sst>
@@ -836,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>11</v>
@@ -886,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
@@ -901,7 +916,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -910,10 +925,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -922,17 +937,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>11</v>
@@ -940,49 +957,57 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
